--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T10:34:03+00:00</t>
+    <t>2024-03-04T14:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T14:05:06+00:00</t>
+    <t>2024-03-04T14:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T14:43:50+00:00</t>
+    <t>2024-03-06T09:26:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T09:26:16+00:00</t>
+    <t>2024-03-06T16:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T16:57:01+00:00</t>
+    <t>2024-03-07T10:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T10:33:11+00:00</t>
+    <t>2024-03-07T11:05:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T11:05:14+00:00</t>
+    <t>2024-03-07T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T18:27:21+00:00</t>
+    <t>2024-03-08T13:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T13:17:23+00:00</t>
+    <t>2024-03-08T16:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T16:11:48+00:00</t>
+    <t>2024-03-08T16:37:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T16:37:07+00:00</t>
+    <t>2024-03-08T17:13:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T17:13:57+00:00</t>
+    <t>2024-03-08T17:43:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T17:43:56+00:00</t>
+    <t>2024-03-11T13:05:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T13:05:24+00:00</t>
+    <t>2024-03-11T13:11:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T13:11:13+00:00</t>
+    <t>2024-03-11T17:48:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/sd-update-draft-ror-31/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T17:48:01+00:00</t>
+    <t>2024-03-12T10:01:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
